--- a/Документация/WebTours Профиль нагрузки.xlsx
+++ b/Документация/WebTours Профиль нагрузки.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53152FC-9AF3-45BC-8C02-7AF4C5E15402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB99B1A-BC0D-42CD-9F13-4515DF3487AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="1905" windowWidth="21600" windowHeight="11835" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ручной расчет" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="82">
   <si>
     <t>N</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>Удаление билета</t>
-  </si>
-  <si>
-    <t>Не знаю как добавить строчку, выделенную красным в сводную таблицу, чтобы атоматически подсчитало, поэтому изменил вручную</t>
   </si>
 </sst>
 </file>
@@ -553,7 +550,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,12 +744,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -775,14 +766,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1156,6 +1141,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1204,7 +1226,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1332,22 +1354,16 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="35" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1357,32 +1373,8 @@
     <xf numFmtId="1" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1392,8 +1384,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1417,12 +1407,45 @@
     <xf numFmtId="9" fontId="3" fillId="5" borderId="8" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1474,6 +1497,20 @@
   <dxfs count="4">
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
@@ -1496,24 +1533,10 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <right style="thin">
           <color indexed="64"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1529,7 +1552,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Professional" refreshedDate="44040.758058680556" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{849ED774-79A0-8640-B03A-801DA7FF34DA}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Professional" refreshedDate="44046.744492824073" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{849ED774-79A0-8640-B03A-801DA7FF34DA}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H17" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1741,7 +1764,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C1B8241-71E6-3F4A-ACE2-C3E8BA417ED7}" name="Сводная таблица2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C1B8241-71E6-3F4A-ACE2-C3E8BA417ED7}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1817,8 +1840,8 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{01A7AC68-6F90-4DB3-A40C-BC68524FF0A0}" name="Script name"/>
     <tableColumn id="2" xr3:uid="{CEC2D305-C88B-4F67-88BD-AD5179849487}" name="transaction rq"/>
-    <tableColumn id="3" xr3:uid="{9B16814C-A23A-4562-BE74-044A6966B068}" name="count" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{EFAD72D8-365C-43DB-8557-A48449323FC2}" name="VU" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9B16814C-A23A-4562-BE74-044A6966B068}" name="count" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{EFAD72D8-365C-43DB-8557-A48449323FC2}" name="VU" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{D7E22E4C-2521-499F-B06A-457CDCE2A3AF}" name="pacing" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{5475C0E4-A388-4DEE-AA31-43D13A902303}" name="одним пользователем в минуту"/>
     <tableColumn id="7" xr3:uid="{2D51A5EF-9B83-404D-9E44-4B9F0B5B20AC}" name="Длительность ступени"/>
@@ -2171,12 +2194,12 @@
       </c>
     </row>
     <row r="7" spans="7:12" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="7:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
@@ -2818,7 +2841,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="93">
+      <c r="D2" s="81">
         <v>2</v>
       </c>
       <c r="E2">
@@ -2844,7 +2867,7 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="93">
+      <c r="D3" s="81">
         <v>3</v>
       </c>
       <c r="E3">
@@ -2861,7 +2884,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="72" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
@@ -2870,7 +2893,7 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="81">
         <v>2</v>
       </c>
       <c r="E4">
@@ -2887,7 +2910,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="72" t="s">
         <v>80</v>
       </c>
       <c r="B5" t="s">
@@ -2896,7 +2919,7 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="93">
+      <c r="D5" s="81">
         <v>1</v>
       </c>
       <c r="E5">
@@ -2913,7 +2936,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="73" t="s">
         <v>81</v>
       </c>
       <c r="B6" t="s">
@@ -2922,7 +2945,7 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="81">
         <v>2</v>
       </c>
       <c r="E6">
@@ -3280,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A73EA1-9683-764A-B533-D46D1B03E170}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3299,29 +3322,29 @@
     <col min="19" max="19" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="38" t="s">
@@ -3330,55 +3353,55 @@
       <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="59" t="s">
+      <c r="L1" s="105"/>
+      <c r="M1" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="O1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="62" t="s">
+      <c r="W1" s="60" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="74">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="96">
         <f t="shared" ref="D2:D18" si="0">VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3404,58 +3427,58 @@
       <c r="J2" s="37">
         <v>967.46828752642716</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="82" t="s">
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="84">
+      <c r="N2" s="74">
         <v>1.214</v>
       </c>
-      <c r="O2" s="85">
+      <c r="O2" s="75">
         <v>10.022</v>
       </c>
       <c r="P2" s="48">
         <f>N2+O2</f>
         <v>11.236000000000001</v>
       </c>
-      <c r="Q2" s="81">
+      <c r="Q2" s="71">
         <v>22</v>
       </c>
-      <c r="R2" s="81">
+      <c r="R2" s="71">
         <v>2</v>
       </c>
-      <c r="S2" s="63">
+      <c r="S2" s="61">
         <f>60/(Q2)</f>
         <v>2.7272727272727271</v>
       </c>
-      <c r="T2" s="56">
+      <c r="T2" s="55">
         <v>60</v>
       </c>
-      <c r="U2" s="64">
+      <c r="U2" s="62">
         <f>ROUND(R2*S2*T2,0)</f>
         <v>327</v>
       </c>
-      <c r="V2" s="65">
+      <c r="V2" s="63">
         <f>R2/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="W2" s="66">
+      <c r="W2" s="64">
         <f>SUM(R2:R6)</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="76">
         <v>1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="97">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3481,55 +3504,55 @@
       <c r="J3" s="37">
         <v>112.5</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="82" t="s">
+      <c r="K3" s="108"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="86">
+      <c r="N3" s="76">
         <v>1.548</v>
       </c>
-      <c r="O3" s="87">
+      <c r="O3" s="77">
         <v>20.033999999999999</v>
       </c>
       <c r="P3" s="48">
         <f t="shared" ref="P3:P6" si="5">N3+O3</f>
         <v>21.582000000000001</v>
       </c>
-      <c r="Q3" s="81">
+      <c r="Q3" s="71">
         <v>43</v>
       </c>
-      <c r="R3" s="81">
+      <c r="R3" s="71">
         <v>3</v>
       </c>
-      <c r="S3" s="63">
+      <c r="S3" s="61">
         <f t="shared" ref="S3:S6" si="6">60/(Q3)</f>
         <v>1.3953488372093024</v>
       </c>
-      <c r="T3" s="56">
+      <c r="T3" s="55">
         <v>60</v>
       </c>
-      <c r="U3" s="64">
+      <c r="U3" s="62">
         <f t="shared" ref="U3:U6" si="7">ROUND(R3*S3*T3,0)</f>
         <v>251</v>
       </c>
-      <c r="V3" s="65">
+      <c r="V3" s="63">
         <f t="shared" ref="V3:V6" si="8">R3/W$2</f>
         <v>0.3</v>
       </c>
-      <c r="W3" s="66"/>
+      <c r="W3" s="64"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="97">
+      <c r="C4" s="76">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="97">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3556,53 +3579,53 @@
         <v>854.96828752642716</v>
       </c>
       <c r="K4" s="37"/>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="86">
+      <c r="N4" s="76">
         <v>1.8819999999999999</v>
       </c>
-      <c r="O4" s="87">
+      <c r="O4" s="77">
         <v>30.062000000000001</v>
       </c>
-      <c r="P4" s="80">
+      <c r="P4" s="70">
         <f t="shared" si="5"/>
         <v>31.944000000000003</v>
       </c>
-      <c r="Q4" s="81">
+      <c r="Q4" s="71">
         <v>64</v>
       </c>
-      <c r="R4" s="81">
+      <c r="R4" s="71">
         <v>2</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="61">
         <f t="shared" si="6"/>
         <v>0.9375</v>
       </c>
-      <c r="T4" s="56">
+      <c r="T4" s="55">
         <v>60</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="62">
         <f t="shared" si="7"/>
         <v>113</v>
       </c>
-      <c r="V4" s="65">
+      <c r="V4" s="63">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
-      <c r="W4" s="66"/>
+      <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="78">
         <v>1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="97">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3629,53 +3652,53 @@
         <v>363.66279069767444</v>
       </c>
       <c r="K5" s="37"/>
-      <c r="M5" s="82" t="s">
+      <c r="M5" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="N5" s="86">
+      <c r="N5" s="76">
         <v>1.542</v>
       </c>
-      <c r="O5" s="87">
+      <c r="O5" s="77">
         <v>15.03</v>
       </c>
       <c r="P5" s="48">
         <f t="shared" si="5"/>
         <v>16.571999999999999</v>
       </c>
-      <c r="Q5" s="81">
+      <c r="Q5" s="71">
         <v>33</v>
       </c>
-      <c r="R5" s="81">
+      <c r="R5" s="71">
         <v>1</v>
       </c>
-      <c r="S5" s="63">
+      <c r="S5" s="61">
         <f t="shared" si="6"/>
         <v>1.8181818181818181</v>
       </c>
-      <c r="T5" s="56">
+      <c r="T5" s="55">
         <v>60</v>
       </c>
-      <c r="U5" s="64">
+      <c r="U5" s="62">
         <f t="shared" si="7"/>
         <v>109</v>
       </c>
-      <c r="V5" s="65">
+      <c r="V5" s="63">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="W5" s="66"/>
+      <c r="W5" s="64"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="74">
         <v>1</v>
       </c>
-      <c r="D6" s="91">
+      <c r="D6" s="96">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3702,53 +3725,53 @@
         <v>112.5</v>
       </c>
       <c r="K6" s="37"/>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="88">
+      <c r="N6" s="78">
         <v>1.6870000000000001</v>
       </c>
-      <c r="O6" s="89">
+      <c r="O6" s="79">
         <v>20.038</v>
       </c>
-      <c r="P6" s="67">
+      <c r="P6" s="65">
         <f t="shared" si="5"/>
         <v>21.725000000000001</v>
       </c>
-      <c r="Q6" s="81">
+      <c r="Q6" s="71">
         <v>43</v>
       </c>
-      <c r="R6" s="81">
+      <c r="R6" s="71">
         <v>2</v>
       </c>
-      <c r="S6" s="68">
+      <c r="S6" s="66">
         <f t="shared" si="6"/>
         <v>1.3953488372093024</v>
       </c>
-      <c r="T6" s="56">
+      <c r="T6" s="55">
         <v>60</v>
       </c>
-      <c r="U6" s="69">
+      <c r="U6" s="67">
         <f t="shared" si="7"/>
         <v>167</v>
       </c>
-      <c r="V6" s="70">
+      <c r="V6" s="68">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
-      <c r="W6" s="71"/>
+      <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="76">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="97">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3775,28 +3798,28 @@
         <v>167.44186046511629</v>
       </c>
       <c r="K7" s="37"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="54">
+      <c r="T7" s="52"/>
+      <c r="U7" s="53">
         <f>SUM(U2:U6)</f>
         <v>967</v>
       </c>
-      <c r="V7" s="55">
+      <c r="V7" s="54">
         <f>SUM(V2:V6)</f>
         <v>1</v>
       </c>
-      <c r="W7" s="53"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="76">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="97">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3825,16 +3848,16 @@
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="78">
         <v>1</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="98">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3863,16 +3886,16 @@
       <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="74">
         <v>1</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="96">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3894,16 +3917,16 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="97">
+      <c r="C11" s="76">
         <v>1</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="97">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3925,16 +3948,16 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="95">
+      <c r="C12" s="78">
         <v>1</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D12" s="98">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3956,16 +3979,16 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="94">
+      <c r="C13" s="74">
         <v>1</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="96">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3987,16 +4010,16 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="76">
         <v>1</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D14" s="98">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4018,16 +4041,16 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="74">
         <v>1</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="96">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4049,16 +4072,16 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="76">
         <v>1</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="97">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4080,16 +4103,16 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="95">
+      <c r="C17" s="78">
         <v>1</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="98">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4110,33 +4133,33 @@
         <v>109.09090909090909</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="99">
         <v>1</v>
       </c>
-      <c r="D18" s="106">
+      <c r="D18" s="100">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18" s="107">
+      <c r="E18" s="92">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="F18" s="108">
+      <c r="F18" s="93">
         <f t="shared" si="2"/>
         <v>0.9375</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="92">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="H18" s="109">
+      <c r="H18" s="94">
         <f t="shared" si="4"/>
         <v>112.5</v>
       </c>
@@ -4152,7 +4175,7 @@
       <c r="D20" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="101" t="s">
         <v>77</v>
       </c>
       <c r="H20" s="45" t="s">
@@ -4160,152 +4183,165 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="98">
+      <c r="B21" s="86">
         <v>965</v>
       </c>
-      <c r="C21" s="99">
+      <c r="C21" s="87">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A21)</f>
         <v>967.46828752642716</v>
       </c>
-      <c r="D21" s="100">
+      <c r="D21" s="88">
         <f>1-B21/C21</f>
         <v>2.551285203092224E-3</v>
       </c>
       <c r="G21" s="50">
-        <f>C21/6</f>
-        <v>161.24471458773786</v>
-      </c>
-      <c r="H21" s="51"/>
+        <f>C21/3</f>
+        <v>322.48942917547572</v>
+      </c>
+      <c r="H21" s="102">
+        <v>320</v>
+      </c>
       <c r="I21" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="101">
+      <c r="B22" s="89">
         <v>362</v>
       </c>
-      <c r="C22" s="102">
-        <f t="shared" ref="C22:C27" si="9">GETPIVOTDATA("Итого",$I$1,"transaction rq",A22)</f>
+      <c r="C22" s="90">
+        <f t="shared" ref="C22:C26" si="9">GETPIVOTDATA("Итого",$I$1,"transaction rq",A22)</f>
         <v>363.66279069767444</v>
       </c>
-      <c r="D22" s="103">
+      <c r="D22" s="91">
         <f t="shared" ref="D22:D28" si="10">1-B22/C22</f>
         <v>4.5723421262989783E-3</v>
       </c>
       <c r="G22" s="50">
-        <f t="shared" ref="G22:G27" si="11">C22/6</f>
-        <v>60.610465116279073</v>
-      </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="49" t="e">
+        <f t="shared" ref="G22:G27" si="11">C22/3</f>
+        <v>121.22093023255815</v>
+      </c>
+      <c r="H22" s="102">
+        <f>84+37</f>
+        <v>121</v>
+      </c>
+      <c r="I22" s="49">
         <f>1-G21/H21</f>
-        <v>#DIV/0!</v>
+        <v>-7.779466173361671E-3</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="101">
+      <c r="B23" s="89">
         <v>112</v>
       </c>
-      <c r="C23" s="102">
+      <c r="C23" s="90">
         <f t="shared" si="9"/>
         <v>112.5</v>
       </c>
-      <c r="D23" s="103">
+      <c r="D23" s="91">
         <f t="shared" si="10"/>
         <v>4.4444444444444731E-3</v>
       </c>
       <c r="G23" s="50">
         <f t="shared" si="11"/>
-        <v>18.75</v>
-      </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="49" t="e">
+        <v>37.5</v>
+      </c>
+      <c r="H23" s="102">
+        <v>37</v>
+      </c>
+      <c r="I23" s="49">
         <f t="shared" ref="I23:I27" si="12">1-G22/H22</f>
-        <v>#DIV/0!</v>
+        <v>-1.8258696905630867E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="89">
         <v>112</v>
       </c>
-      <c r="C24" s="102">
+      <c r="C24" s="90">
         <f t="shared" si="9"/>
         <v>112.5</v>
       </c>
-      <c r="D24" s="103">
+      <c r="D24" s="91">
         <f t="shared" si="10"/>
         <v>4.4444444444444731E-3</v>
       </c>
       <c r="G24" s="50">
         <f t="shared" si="11"/>
-        <v>18.75</v>
-      </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="49" t="e">
+        <v>37.5</v>
+      </c>
+      <c r="H24" s="102">
+        <v>36</v>
+      </c>
+      <c r="I24" s="49">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="101">
+      <c r="B25" s="89">
         <v>277</v>
       </c>
-      <c r="C25" s="102">
+      <c r="C25" s="90">
         <f t="shared" si="9"/>
         <v>276.53276955602541</v>
       </c>
-      <c r="D25" s="103">
+      <c r="D25" s="91">
         <f t="shared" si="10"/>
         <v>-1.689602446482974E-3</v>
       </c>
       <c r="G25" s="50">
         <f t="shared" si="11"/>
-        <v>46.088794926004233</v>
-      </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="49" t="e">
+        <v>92.177589852008467</v>
+      </c>
+      <c r="H25" s="102">
+        <v>91</v>
+      </c>
+      <c r="I25" s="49">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>-4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="101">
+      <c r="B26" s="89">
         <v>168</v>
       </c>
-      <c r="C26" s="102">
+      <c r="C26" s="90">
         <f t="shared" si="9"/>
         <v>167.44186046511629</v>
       </c>
-      <c r="D26" s="103">
+      <c r="D26" s="91">
         <f t="shared" si="10"/>
         <v>-3.3333333333331883E-3</v>
       </c>
       <c r="G26" s="50">
-        <f>C26/6</f>
-        <v>27.90697674418605</v>
-      </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="49" t="e">
+        <f t="shared" si="11"/>
+        <v>55.8139534883721</v>
+      </c>
+      <c r="H26" s="102">
+        <v>55</v>
+      </c>
+      <c r="I26" s="49">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>-1.2940547824268789E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4324,12 +4360,14 @@
       </c>
       <c r="G27" s="50">
         <f t="shared" si="11"/>
-        <v>161.33333333333334</v>
-      </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="49" t="e">
+        <v>322.66666666666669</v>
+      </c>
+      <c r="H27" s="102">
+        <v>320</v>
+      </c>
+      <c r="I27" s="49">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>-1.4799154334038223E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4337,7 +4375,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="45">
-        <v>1688</v>
+        <v>2963</v>
       </c>
       <c r="C28" s="50">
         <f>SUM(C21:C27)</f>
@@ -4345,23 +4383,18 @@
       </c>
       <c r="D28" s="49">
         <f t="shared" si="10"/>
-        <v>0.43128710163158146</v>
+        <v>1.720190837900426E-3</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="I28" s="49" t="e">
+      <c r="I28" s="49">
         <f>1-G27/H27</f>
-        <v>#DIV/0!</v>
+        <v>-8.3333333333333037E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I29" s="58" t="e">
+      <c r="I29" s="56">
         <f>AVERAGE(I22:I28)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>82</v>
+        <v>-1.4408364505106488E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4379,7 +4412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P6">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>$Q$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4391,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D48B1FB-7751-441D-9516-C0058F4407BB}">
   <dimension ref="C9:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,13 +4447,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="23" t="s">
@@ -4573,13 +4606,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="79" t="s">
+      <c r="E23" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="30" t="s">
@@ -4739,13 +4772,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="79" t="s">
+      <c r="E35" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="30" t="s">
